--- a/medicine/Pharmacie/1741_en_santé_et_médecine/1741_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/1741_en_santé_et_médecine/1741_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1741_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1741_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1741 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1741_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1741_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>A l'instar de Paris, Montpellier se dote d'un Collège de Chirurgie[1].
-Jacques Daviel invente la chirurgie moderne de la cataracte par extraction du cristallin[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>A l'instar de Paris, Montpellier se dote d'un Collège de Chirurgie.
+Jacques Daviel invente la chirurgie moderne de la cataracte par extraction du cristallin.
 Daubenton passe sa thèse de médecine à Reims et revient à Montbard, sa ville natale, pour y exercer avant d’être appelé par Buffon à Paris.
-Famine en Europe et plus particulièrement en Irlande[3],[4].
-Épidémie de fièvre jaune à Malaga[5].</t>
+Famine en Europe et plus particulièrement en Irlande,.
+Épidémie de fièvre jaune à Malaga.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1741_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1741_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +559,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Publication, à Liège, de la Pharmacopoea Leodiensis,  pharmacopée officielle réalisées par quatre médecins afin d’uniformiser les préparations. On y trouve la liste autorisée des drogues simples et composées, c’est-à-dire les préparations galéniques, dont le prix est désormais fixé. Document officiel, son usage est rendu obligatoire à tous médecins et apothicaires du pays de Liège[6].
-Nicolas Andry de Boisregard : L'orthopédie ou l'art de corriger dans les enfants les difformités du corps[7]. Il introduit pour la 1re fois le terme « orthopédie » dans le titre de son ouvrage et décrit la « chlorose » de l'enfant[8].
-Étienne-François Geoffroy, Tractacus de materia medica[9].
-Duhamel du Monceau, Observations sur la réunion des fractures des os[10].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Publication, à Liège, de la Pharmacopoea Leodiensis,  pharmacopée officielle réalisées par quatre médecins afin d’uniformiser les préparations. On y trouve la liste autorisée des drogues simples et composées, c’est-à-dire les préparations galéniques, dont le prix est désormais fixé. Document officiel, son usage est rendu obligatoire à tous médecins et apothicaires du pays de Liège.
+Nicolas Andry de Boisregard : L'orthopédie ou l'art de corriger dans les enfants les difformités du corps. Il introduit pour la 1re fois le terme « orthopédie » dans le titre de son ouvrage et décrit la « chlorose » de l'enfant.
+Étienne-François Geoffroy, Tractacus de materia medica.
+Duhamel du Monceau, Observations sur la réunion des fractures des os.</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1741_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1741_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>4 mars : Casimiro Gómez Ortega (mort en 1818), médecin, pharmacien et botaniste espagnol.
 17 mars : William Withering (mort en 1799), médecin et botaniste britannique, célèbre pour sa découverte de la digitaline.
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1741_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1741_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,10 +637,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2 mai : Karl Niklaus Lang (né en 1670), médecin et naturaliste suisse.
-18 juin : François Pourfour du Petit (né en 1664), médecin, naturaliste, anatomiste et ophtalmologue français[11].
+18 juin : François Pourfour du Petit (né en 1664), médecin, naturaliste, anatomiste et ophtalmologue français.
 28 juillet : Ægidius Ziervgel (né en 1697), pharmacien et naturaliste suédois.</t>
         </is>
       </c>
